--- a/data/word_list_4.xlsx
+++ b/data/word_list_4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K344"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -423,10 +403,7 @@
       <c r="C2">
         <v>5.79</v>
       </c>
-      <c r="F2">
-        <v>5.79</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>attend to</t>
         </is>
@@ -441,10 +418,7 @@
       <c r="C3">
         <v>5.79</v>
       </c>
-      <c r="F3">
-        <v>5.79</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>language</t>
         </is>
@@ -456,19 +430,13 @@
           <t>tänzer</t>
         </is>
       </c>
-      <c r="B4">
-        <v>4.7</v>
-      </c>
       <c r="C4">
         <v>5.79</v>
       </c>
       <c r="D4">
-        <v>3.58</v>
-      </c>
-      <c r="F4">
-        <v>5.79</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>4.7</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>dancer</t>
         </is>
@@ -483,10 +451,7 @@
       <c r="C5">
         <v>5.79</v>
       </c>
-      <c r="F5">
-        <v>5.79</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>throne</t>
         </is>
@@ -501,10 +466,7 @@
       <c r="C6">
         <v>5.79</v>
       </c>
-      <c r="F6">
-        <v>5.79</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>octopus</t>
         </is>
@@ -519,10 +481,7 @@
       <c r="C7">
         <v>5.79</v>
       </c>
-      <c r="F7">
-        <v>5.79</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>wrath</t>
         </is>
@@ -537,10 +496,7 @@
       <c r="C8">
         <v>5.8</v>
       </c>
-      <c r="F8">
-        <v>5.8</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>lure</t>
         </is>
@@ -555,10 +511,7 @@
       <c r="C9">
         <v>5.8</v>
       </c>
-      <c r="F9">
-        <v>5.8</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>view</t>
         </is>
@@ -573,10 +526,7 @@
       <c r="C10">
         <v>5.8</v>
       </c>
-      <c r="F10">
-        <v>5.8</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
@@ -591,10 +541,7 @@
       <c r="C11">
         <v>5.8</v>
       </c>
-      <c r="F11">
-        <v>5.8</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>packing</t>
         </is>
@@ -609,10 +556,7 @@
       <c r="C12">
         <v>5.8</v>
       </c>
-      <c r="F12">
-        <v>5.8</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>shaver</t>
         </is>
@@ -627,10 +571,7 @@
       <c r="C13">
         <v>5.8</v>
       </c>
-      <c r="F13">
-        <v>5.8</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pasture</t>
         </is>
@@ -642,25 +583,19 @@
           <t>stemmeisen</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>5.8</v>
+      </c>
+      <c r="D14">
         <v>0.45</v>
       </c>
-      <c r="D14">
-        <v>5.8</v>
-      </c>
-      <c r="F14">
-        <v>5.8</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="E14">
+        <v>11.67</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>chisel</t>
         </is>
-      </c>
-      <c r="I14">
-        <v>11.67</v>
-      </c>
-      <c r="J14">
-        <v>10.71</v>
       </c>
     </row>
     <row r="15">
@@ -669,13 +604,10 @@
           <t>bmx</t>
         </is>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>5.8</v>
       </c>
-      <c r="F15">
-        <v>5.8</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>bmx</t>
         </is>
@@ -687,16 +619,13 @@
           <t>bauingenieur</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>5.8</v>
+      </c>
+      <c r="D16">
         <v>0.47</v>
       </c>
-      <c r="D16">
-        <v>5.8</v>
-      </c>
-      <c r="F16">
-        <v>5.8</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>building engineer</t>
         </is>
@@ -711,10 +640,7 @@
       <c r="C17">
         <v>5.81</v>
       </c>
-      <c r="F17">
-        <v>5.81</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
@@ -729,10 +655,7 @@
       <c r="C18">
         <v>5.81</v>
       </c>
-      <c r="F18">
-        <v>5.81</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>servant</t>
         </is>
@@ -747,10 +670,7 @@
       <c r="C19">
         <v>5.81</v>
       </c>
-      <c r="F19">
-        <v>5.81</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>content</t>
         </is>
@@ -765,10 +685,7 @@
       <c r="C20">
         <v>5.81</v>
       </c>
-      <c r="F20">
-        <v>5.81</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>stomach</t>
         </is>
@@ -783,10 +700,7 @@
       <c r="C21">
         <v>5.81</v>
       </c>
-      <c r="F21">
-        <v>5.81</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>ink</t>
         </is>
@@ -798,16 +712,13 @@
           <t>boccia</t>
         </is>
       </c>
-      <c r="B22">
+      <c r="C22">
+        <v>5.81</v>
+      </c>
+      <c r="D22">
         <v>0.04</v>
       </c>
-      <c r="D22">
-        <v>5.81</v>
-      </c>
-      <c r="F22">
-        <v>5.81</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>bowls</t>
         </is>
@@ -819,16 +730,13 @@
           <t>mirabelle</t>
         </is>
       </c>
-      <c r="B23">
+      <c r="C23">
+        <v>5.82</v>
+      </c>
+      <c r="D23">
         <v>0.23</v>
       </c>
-      <c r="D23">
-        <v>5.82</v>
-      </c>
-      <c r="F23">
-        <v>5.82</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>mirabelle</t>
         </is>
@@ -843,10 +751,7 @@
       <c r="C24">
         <v>5.83</v>
       </c>
-      <c r="F24">
-        <v>5.83</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>impertinence</t>
         </is>
@@ -861,10 +766,7 @@
       <c r="C25">
         <v>5.83</v>
       </c>
-      <c r="F25">
-        <v>5.83</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>peace</t>
         </is>
@@ -879,10 +781,7 @@
       <c r="C26">
         <v>5.83</v>
       </c>
-      <c r="F26">
-        <v>5.83</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>skinny</t>
         </is>
@@ -897,10 +796,7 @@
       <c r="C27">
         <v>5.83</v>
       </c>
-      <c r="F27">
-        <v>5.83</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>almond</t>
         </is>
@@ -915,10 +811,7 @@
       <c r="C28">
         <v>5.83</v>
       </c>
-      <c r="F28">
-        <v>5.83</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>invoice</t>
         </is>
@@ -933,10 +826,7 @@
       <c r="C29">
         <v>5.83</v>
       </c>
-      <c r="F29">
-        <v>5.83</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>bug</t>
         </is>
@@ -948,16 +838,13 @@
           <t>kimono</t>
         </is>
       </c>
-      <c r="B30">
+      <c r="C30">
+        <v>5.83</v>
+      </c>
+      <c r="D30">
         <v>0.47</v>
       </c>
-      <c r="D30">
-        <v>5.83</v>
-      </c>
-      <c r="F30">
-        <v>5.83</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>kimono</t>
         </is>
@@ -972,10 +859,7 @@
       <c r="C31">
         <v>5.84</v>
       </c>
-      <c r="F31">
-        <v>5.84</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
@@ -990,10 +874,7 @@
       <c r="C32">
         <v>5.84</v>
       </c>
-      <c r="F32">
-        <v>5.84</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>run-up</t>
         </is>
@@ -1008,10 +889,7 @@
       <c r="C33">
         <v>5.84</v>
       </c>
-      <c r="F33">
-        <v>5.84</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>stage</t>
         </is>
@@ -1026,10 +904,7 @@
       <c r="C34">
         <v>5.84</v>
       </c>
-      <c r="F34">
-        <v>5.84</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>forest warden</t>
         </is>
@@ -1044,10 +919,7 @@
       <c r="C35">
         <v>5.84</v>
       </c>
-      <c r="F35">
-        <v>5.84</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>whingeing</t>
         </is>
@@ -1062,10 +934,7 @@
       <c r="C36">
         <v>5.84</v>
       </c>
-      <c r="F36">
-        <v>5.84</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>care for</t>
         </is>
@@ -1080,10 +949,7 @@
       <c r="C37">
         <v>5.84</v>
       </c>
-      <c r="F37">
-        <v>5.84</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>shoreline</t>
         </is>
@@ -1098,10 +964,7 @@
       <c r="C38">
         <v>5.84</v>
       </c>
-      <c r="F38">
-        <v>5.84</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>team</t>
         </is>
@@ -1116,10 +979,7 @@
       <c r="C39">
         <v>5.84</v>
       </c>
-      <c r="F39">
-        <v>5.84</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>unsafe</t>
         </is>
@@ -1131,16 +991,13 @@
           <t>schildlaus</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="C40">
+        <v>5.84</v>
+      </c>
+      <c r="D40">
         <v>0.38</v>
       </c>
-      <c r="D40">
-        <v>5.84</v>
-      </c>
-      <c r="F40">
-        <v>5.84</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>scale insect</t>
         </is>
@@ -1152,16 +1009,13 @@
           <t>schutzanzug</t>
         </is>
       </c>
-      <c r="B41">
+      <c r="C41">
+        <v>5.85</v>
+      </c>
+      <c r="D41">
         <v>0.11</v>
       </c>
-      <c r="D41">
-        <v>5.85</v>
-      </c>
-      <c r="F41">
-        <v>5.85</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>overalls</t>
         </is>
@@ -1173,16 +1027,13 @@
           <t>top</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="C42">
+        <v>5.85</v>
+      </c>
+      <c r="D42">
         <v>0.33</v>
       </c>
-      <c r="D42">
-        <v>5.85</v>
-      </c>
-      <c r="F42">
-        <v>5.85</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>top</t>
         </is>
@@ -1194,16 +1045,13 @@
           <t>standardtanz</t>
         </is>
       </c>
-      <c r="B43">
+      <c r="C43">
+        <v>5.85</v>
+      </c>
+      <c r="D43">
         <v>0.03</v>
       </c>
-      <c r="D43">
-        <v>5.85</v>
-      </c>
-      <c r="F43">
-        <v>5.85</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>standard dance</t>
         </is>
@@ -1215,16 +1063,13 @@
           <t>surfen</t>
         </is>
       </c>
-      <c r="B44">
+      <c r="C44">
+        <v>5.85</v>
+      </c>
+      <c r="D44">
         <v>0.23</v>
       </c>
-      <c r="D44">
-        <v>5.85</v>
-      </c>
-      <c r="F44">
-        <v>5.85</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>surfing</t>
         </is>
@@ -1236,16 +1081,13 @@
           <t>historiker</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="C45">
+        <v>5.85</v>
+      </c>
+      <c r="D45">
         <v>20.85</v>
       </c>
-      <c r="D45">
-        <v>5.85</v>
-      </c>
-      <c r="F45">
-        <v>5.85</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>historian</t>
         </is>
@@ -1257,16 +1099,13 @@
           <t>lackierer</t>
         </is>
       </c>
-      <c r="B46">
+      <c r="C46">
+        <v>5.85</v>
+      </c>
+      <c r="D46">
         <v>0.08</v>
       </c>
-      <c r="D46">
-        <v>5.85</v>
-      </c>
-      <c r="F46">
-        <v>5.85</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>varnisher</t>
         </is>
@@ -1281,10 +1120,7 @@
       <c r="C47">
         <v>5.86</v>
       </c>
-      <c r="F47">
-        <v>5.86</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>alarm</t>
         </is>
@@ -1299,10 +1135,7 @@
       <c r="C48">
         <v>5.86</v>
       </c>
-      <c r="F48">
-        <v>5.86</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>egg salad</t>
         </is>
@@ -1314,34 +1147,25 @@
           <t>flagge</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C49">
         <v>5.86</v>
       </c>
       <c r="E49">
-        <v>3.62</v>
-      </c>
-      <c r="F49">
-        <v>5.86</v>
+        <v>3.21</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
           <t>flag</t>
-        </is>
-      </c>
-      <c r="I49">
-        <v>3.21</v>
-      </c>
-      <c r="J49">
-        <v>5.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1354,10 +1178,7 @@
       <c r="C50">
         <v>5.86</v>
       </c>
-      <c r="F50">
-        <v>5.86</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>herd</t>
         </is>
@@ -1372,10 +1193,7 @@
       <c r="C51">
         <v>5.86</v>
       </c>
-      <c r="F51">
-        <v>5.86</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>commotion</t>
         </is>
@@ -1390,10 +1208,7 @@
       <c r="C52">
         <v>5.86</v>
       </c>
-      <c r="F52">
-        <v>5.86</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>swamp</t>
         </is>
@@ -1408,10 +1223,7 @@
       <c r="C53">
         <v>5.87</v>
       </c>
-      <c r="F53">
-        <v>5.87</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>poodle</t>
         </is>
@@ -1426,10 +1238,7 @@
       <c r="C54">
         <v>5.88</v>
       </c>
-      <c r="F54">
-        <v>5.88</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>specify</t>
         </is>
@@ -1444,10 +1253,7 @@
       <c r="C55">
         <v>5.88</v>
       </c>
-      <c r="F55">
-        <v>5.88</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>bubble</t>
         </is>
@@ -1462,10 +1268,7 @@
       <c r="C56">
         <v>5.88</v>
       </c>
-      <c r="F56">
-        <v>5.88</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>wrinkle</t>
         </is>
@@ -1477,19 +1280,13 @@
           <t>floß</t>
         </is>
       </c>
-      <c r="B57">
-        <v>2.34</v>
-      </c>
       <c r="C57">
         <v>5.88</v>
       </c>
       <c r="D57">
-        <v>3.6</v>
-      </c>
-      <c r="F57">
-        <v>5.88</v>
-      </c>
-      <c r="H57" t="inlineStr">
+        <v>2.34</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>raft</t>
         </is>
@@ -1504,10 +1301,7 @@
       <c r="C58">
         <v>5.88</v>
       </c>
-      <c r="F58">
-        <v>5.88</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>seat belt</t>
         </is>
@@ -1522,10 +1316,7 @@
       <c r="C59">
         <v>5.88</v>
       </c>
-      <c r="F59">
-        <v>5.88</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>burr</t>
         </is>
@@ -1540,10 +1331,7 @@
       <c r="C60">
         <v>5.88</v>
       </c>
-      <c r="F60">
-        <v>5.88</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>slobber</t>
         </is>
@@ -1558,10 +1346,7 @@
       <c r="C61">
         <v>5.88</v>
       </c>
-      <c r="F61">
-        <v>5.88</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>foamy</t>
         </is>
@@ -1576,19 +1361,13 @@
       <c r="C62">
         <v>5.88</v>
       </c>
-      <c r="F62">
-        <v>5.88</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="E62">
+        <v>7.21</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>volcano</t>
         </is>
-      </c>
-      <c r="I62">
-        <v>7.21</v>
-      </c>
-      <c r="J62">
-        <v>6.74</v>
       </c>
     </row>
     <row r="63">
@@ -1600,10 +1379,7 @@
       <c r="C63">
         <v>5.88</v>
       </c>
-      <c r="F63">
-        <v>5.88</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>warn</t>
         </is>
@@ -1615,13 +1391,10 @@
           <t>kidneybohne</t>
         </is>
       </c>
-      <c r="D64">
+      <c r="C64">
         <v>5.88</v>
       </c>
-      <c r="F64">
-        <v>5.88</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>kidney bean</t>
         </is>
@@ -1633,16 +1406,13 @@
           <t>tontaubenschießen</t>
         </is>
       </c>
-      <c r="B65">
+      <c r="C65">
+        <v>5.89</v>
+      </c>
+      <c r="D65">
         <v>0.04</v>
       </c>
-      <c r="D65">
-        <v>5.89</v>
-      </c>
-      <c r="F65">
-        <v>5.89</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>trapshooting</t>
         </is>
@@ -1657,10 +1427,7 @@
       <c r="C66">
         <v>5.89</v>
       </c>
-      <c r="F66">
-        <v>5.89</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>altar</t>
         </is>
@@ -1675,10 +1442,7 @@
       <c r="C67">
         <v>5.89</v>
       </c>
-      <c r="F67">
-        <v>5.89</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>decide</t>
         </is>
@@ -1693,19 +1457,13 @@
       <c r="C68">
         <v>5.89</v>
       </c>
-      <c r="F68">
-        <v>5.89</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="E68">
+        <v>3.71</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>iron</t>
         </is>
-      </c>
-      <c r="I68">
-        <v>3.71</v>
-      </c>
-      <c r="J68">
-        <v>6.65</v>
       </c>
     </row>
     <row r="69">
@@ -1717,10 +1475,7 @@
       <c r="C69">
         <v>5.89</v>
       </c>
-      <c r="F69">
-        <v>5.89</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>farm</t>
         </is>
@@ -1735,10 +1490,7 @@
       <c r="C70">
         <v>5.89</v>
       </c>
-      <c r="F70">
-        <v>5.89</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>marry</t>
         </is>
@@ -1750,40 +1502,28 @@
           <t>känguru</t>
         </is>
       </c>
-      <c r="B71">
-        <v>0.02</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C71">
         <v>5.89</v>
       </c>
       <c r="D71">
-        <v>3.6</v>
+        <v>0.02</v>
       </c>
       <c r="E71">
-        <v>3.76</v>
-      </c>
-      <c r="F71">
-        <v>5.89</v>
+        <v>3.71</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
           <t>kangaroo</t>
-        </is>
-      </c>
-      <c r="I71">
-        <v>3.71</v>
-      </c>
-      <c r="J71">
-        <v>6.21</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1796,10 +1536,7 @@
       <c r="C72">
         <v>5.89</v>
       </c>
-      <c r="F72">
-        <v>5.89</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>pillar</t>
         </is>
@@ -1814,10 +1551,7 @@
       <c r="C73">
         <v>5.89</v>
       </c>
-      <c r="F73">
-        <v>5.89</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>mould</t>
         </is>
@@ -1832,10 +1566,7 @@
       <c r="C74">
         <v>5.89</v>
       </c>
-      <c r="F74">
-        <v>5.89</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>sail</t>
         </is>
@@ -1847,16 +1578,13 @@
           <t>chicoree</t>
         </is>
       </c>
-      <c r="B75">
+      <c r="C75">
+        <v>5.89</v>
+      </c>
+      <c r="D75">
         <v>0.03</v>
       </c>
-      <c r="D75">
-        <v>5.89</v>
-      </c>
-      <c r="F75">
-        <v>5.89</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>chicory</t>
         </is>
@@ -1871,10 +1599,7 @@
       <c r="C76">
         <v>5.9</v>
       </c>
-      <c r="F76">
-        <v>5.9</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>album</t>
         </is>
@@ -1889,10 +1614,7 @@
       <c r="C77">
         <v>5.9</v>
       </c>
-      <c r="F77">
-        <v>5.9</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
@@ -1907,10 +1629,7 @@
       <c r="C78">
         <v>5.9</v>
       </c>
-      <c r="F78">
-        <v>5.9</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>fizzy drink</t>
         </is>
@@ -1925,10 +1644,7 @@
       <c r="C79">
         <v>5.9</v>
       </c>
-      <c r="F79">
-        <v>5.9</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>bravo</t>
         </is>
@@ -1943,10 +1659,7 @@
       <c r="C80">
         <v>5.9</v>
       </c>
-      <c r="F80">
-        <v>5.9</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>contrary</t>
         </is>
@@ -1961,10 +1674,7 @@
       <c r="C81">
         <v>5.9</v>
       </c>
-      <c r="F81">
-        <v>5.9</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>metal</t>
         </is>
@@ -1979,10 +1689,7 @@
       <c r="C82">
         <v>5.9</v>
       </c>
-      <c r="F82">
-        <v>5.9</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>make-up</t>
         </is>
@@ -1997,10 +1704,7 @@
       <c r="C83">
         <v>5.9</v>
       </c>
-      <c r="F83">
-        <v>5.9</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>nickname</t>
         </is>
@@ -2012,16 +1716,13 @@
           <t>kojote</t>
         </is>
       </c>
-      <c r="B84">
+      <c r="C84">
+        <v>5.9</v>
+      </c>
+      <c r="D84">
         <v>0.12</v>
       </c>
-      <c r="D84">
-        <v>5.9</v>
-      </c>
-      <c r="F84">
-        <v>5.9</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>coyote</t>
         </is>
@@ -2033,16 +1734,13 @@
           <t>badminton</t>
         </is>
       </c>
-      <c r="B85">
+      <c r="C85">
+        <v>5.9</v>
+      </c>
+      <c r="D85">
         <v>0.08</v>
       </c>
-      <c r="D85">
-        <v>5.9</v>
-      </c>
-      <c r="F85">
-        <v>5.9</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>badminton</t>
         </is>
@@ -2054,16 +1752,13 @@
           <t>biathlon</t>
         </is>
       </c>
-      <c r="B86">
+      <c r="C86">
+        <v>5.9</v>
+      </c>
+      <c r="D86">
         <v>0.04</v>
       </c>
-      <c r="D86">
-        <v>5.9</v>
-      </c>
-      <c r="F86">
-        <v>5.9</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>biathlon</t>
         </is>
@@ -2075,13 +1770,10 @@
           <t>mountainbiken</t>
         </is>
       </c>
-      <c r="D87">
+      <c r="C87">
         <v>5.9</v>
       </c>
-      <c r="F87">
-        <v>5.9</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>mountain biking</t>
         </is>
@@ -2093,13 +1785,10 @@
           <t>skaten</t>
         </is>
       </c>
-      <c r="D88">
+      <c r="C88">
         <v>5.9</v>
       </c>
-      <c r="F88">
-        <v>5.9</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>skating</t>
         </is>
@@ -2111,16 +1800,13 @@
           <t>florist</t>
         </is>
       </c>
-      <c r="B89">
+      <c r="C89">
+        <v>5.9</v>
+      </c>
+      <c r="D89">
         <v>0.03</v>
       </c>
-      <c r="D89">
-        <v>5.9</v>
-      </c>
-      <c r="F89">
-        <v>5.9</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>florist</t>
         </is>
@@ -2132,16 +1818,13 @@
           <t>altenpfleger</t>
         </is>
       </c>
-      <c r="B90">
+      <c r="C90">
+        <v>5.9</v>
+      </c>
+      <c r="D90">
         <v>0.03</v>
       </c>
-      <c r="D90">
-        <v>5.9</v>
-      </c>
-      <c r="F90">
-        <v>5.9</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>geriatic nurse</t>
         </is>
@@ -2153,16 +1836,13 @@
           <t>psychologe</t>
         </is>
       </c>
-      <c r="B91">
+      <c r="C91">
+        <v>5.9</v>
+      </c>
+      <c r="D91">
         <v>6.38</v>
       </c>
-      <c r="D91">
-        <v>5.9</v>
-      </c>
-      <c r="F91">
-        <v>5.9</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>psychologist</t>
         </is>
@@ -2174,16 +1854,13 @@
           <t>technischer zeichner</t>
         </is>
       </c>
-      <c r="B92">
+      <c r="C92">
+        <v>5.9</v>
+      </c>
+      <c r="D92">
         <v>0</v>
       </c>
-      <c r="D92">
-        <v>5.9</v>
-      </c>
-      <c r="F92">
-        <v>5.9</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>technical draughtsman</t>
         </is>
@@ -2198,10 +1875,7 @@
       <c r="C93">
         <v>5.91</v>
       </c>
-      <c r="F93">
-        <v>5.91</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>pharmacy</t>
         </is>
@@ -2216,10 +1890,7 @@
       <c r="C94">
         <v>5.91</v>
       </c>
-      <c r="F94">
-        <v>5.91</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>sweep</t>
         </is>
@@ -2231,19 +1902,13 @@
           <t>taxi</t>
         </is>
       </c>
-      <c r="B95">
-        <v>4.26</v>
-      </c>
       <c r="C95">
         <v>5.91</v>
       </c>
       <c r="D95">
-        <v>3.4</v>
-      </c>
-      <c r="F95">
-        <v>5.91</v>
-      </c>
-      <c r="H95" t="inlineStr">
+        <v>4.26</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>taxi</t>
         </is>
@@ -2258,10 +1923,7 @@
       <c r="C96">
         <v>5.92</v>
       </c>
-      <c r="F96">
-        <v>5.92</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>breathing</t>
         </is>
@@ -2276,10 +1938,7 @@
       <c r="C97">
         <v>5.92</v>
       </c>
-      <c r="F97">
-        <v>5.92</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>fresh air</t>
         </is>
@@ -2294,10 +1953,7 @@
       <c r="C98">
         <v>5.92</v>
       </c>
-      <c r="F98">
-        <v>5.92</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>okay</t>
         </is>
@@ -2312,10 +1968,7 @@
       <c r="C99">
         <v>5.92</v>
       </c>
-      <c r="F99">
-        <v>5.92</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>saturday</t>
         </is>
@@ -2330,10 +1983,7 @@
       <c r="C100">
         <v>5.92</v>
       </c>
-      <c r="F100">
-        <v>5.92</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>precious</t>
         </is>
@@ -2348,10 +1998,7 @@
       <c r="C101">
         <v>5.93</v>
       </c>
-      <c r="F101">
-        <v>5.93</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -2366,10 +2013,7 @@
       <c r="C102">
         <v>5.93</v>
       </c>
-      <c r="F102">
-        <v>5.93</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>courage</t>
         </is>
@@ -2384,10 +2028,7 @@
       <c r="C103">
         <v>5.93</v>
       </c>
-      <c r="F103">
-        <v>5.93</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>send</t>
         </is>
@@ -2402,10 +2043,7 @@
       <c r="C104">
         <v>5.93</v>
       </c>
-      <c r="F104">
-        <v>5.93</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>full moon</t>
         </is>
@@ -2417,28 +2055,22 @@
           <t>batterie</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C105">
         <v>5.94</v>
       </c>
-      <c r="E105">
-        <v>4.76</v>
-      </c>
-      <c r="F105">
-        <v>5.94</v>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
           <t>battery</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2451,10 +2083,7 @@
       <c r="C106">
         <v>5.94</v>
       </c>
-      <c r="F106">
-        <v>5.94</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>lazybones</t>
         </is>
@@ -2469,10 +2098,7 @@
       <c r="C107">
         <v>5.94</v>
       </c>
-      <c r="F107">
-        <v>5.94</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>enjoy</t>
         </is>
@@ -2487,10 +2113,7 @@
       <c r="C108">
         <v>5.94</v>
       </c>
-      <c r="F108">
-        <v>5.94</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>spear</t>
         </is>
@@ -2505,10 +2128,7 @@
       <c r="C109">
         <v>5.94</v>
       </c>
-      <c r="F109">
-        <v>5.94</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>play music</t>
         </is>
@@ -2523,10 +2143,7 @@
       <c r="C110">
         <v>5.94</v>
       </c>
-      <c r="F110">
-        <v>5.94</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>breakdown</t>
         </is>
@@ -2541,10 +2158,7 @@
       <c r="C111">
         <v>5.94</v>
       </c>
-      <c r="F111">
-        <v>5.94</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>planet</t>
         </is>
@@ -2559,10 +2173,7 @@
       <c r="C112">
         <v>5.94</v>
       </c>
-      <c r="F112">
-        <v>5.94</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>rehearsal</t>
         </is>
@@ -2577,10 +2188,7 @@
       <c r="C113">
         <v>5.94</v>
       </c>
-      <c r="F113">
-        <v>5.94</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>traffic jam</t>
         </is>
@@ -2595,10 +2203,7 @@
       <c r="C114">
         <v>5.94</v>
       </c>
-      <c r="F114">
-        <v>5.94</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>suppository</t>
         </is>
@@ -2610,16 +2215,13 @@
           <t>aubergine</t>
         </is>
       </c>
-      <c r="B115">
+      <c r="C115">
+        <v>5.95</v>
+      </c>
+      <c r="D115">
         <v>0.26</v>
       </c>
-      <c r="D115">
-        <v>5.95</v>
-      </c>
-      <c r="F115">
-        <v>5.95</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>aubergine</t>
         </is>
@@ -2631,16 +2233,13 @@
           <t>zucchini</t>
         </is>
       </c>
-      <c r="B116">
+      <c r="C116">
+        <v>5.95</v>
+      </c>
+      <c r="D116">
         <v>0.01</v>
       </c>
-      <c r="D116">
-        <v>5.95</v>
-      </c>
-      <c r="F116">
-        <v>5.95</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>courgette</t>
         </is>
@@ -2652,16 +2251,13 @@
           <t>glasschneider</t>
         </is>
       </c>
-      <c r="B117">
+      <c r="C117">
+        <v>5.95</v>
+      </c>
+      <c r="D117">
         <v>0.09</v>
       </c>
-      <c r="D117">
-        <v>5.95</v>
-      </c>
-      <c r="F117">
-        <v>5.95</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>glass cutter</t>
         </is>
@@ -2676,10 +2272,7 @@
       <c r="C118">
         <v>5.95</v>
       </c>
-      <c r="F118">
-        <v>5.95</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>selection</t>
         </is>
@@ -2694,10 +2287,7 @@
       <c r="C119">
         <v>5.95</v>
       </c>
-      <c r="F119">
-        <v>5.95</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>scar</t>
         </is>
@@ -2712,10 +2302,7 @@
       <c r="C120">
         <v>5.95</v>
       </c>
-      <c r="F120">
-        <v>5.95</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>uniform</t>
         </is>
@@ -2730,10 +2317,7 @@
       <c r="C121">
         <v>5.95</v>
       </c>
-      <c r="F121">
-        <v>5.95</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
@@ -2745,16 +2329,13 @@
           <t>milbe</t>
         </is>
       </c>
-      <c r="B122">
+      <c r="C122">
+        <v>5.95</v>
+      </c>
+      <c r="D122">
         <v>0.74</v>
       </c>
-      <c r="D122">
-        <v>5.95</v>
-      </c>
-      <c r="F122">
-        <v>5.95</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>mite</t>
         </is>
@@ -2766,13 +2347,10 @@
           <t>zehn-kampf</t>
         </is>
       </c>
-      <c r="D123">
+      <c r="C123">
         <v>5.95</v>
       </c>
-      <c r="F123">
-        <v>5.95</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>decathlon</t>
         </is>
@@ -2784,16 +2362,13 @@
           <t>installateur</t>
         </is>
       </c>
-      <c r="B124">
+      <c r="C124">
+        <v>5.95</v>
+      </c>
+      <c r="D124">
         <v>0.47</v>
       </c>
-      <c r="D124">
-        <v>5.95</v>
-      </c>
-      <c r="F124">
-        <v>5.95</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>fitter</t>
         </is>
@@ -2808,10 +2383,7 @@
       <c r="C125">
         <v>5.96</v>
       </c>
-      <c r="F125">
-        <v>5.96</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>blaze</t>
         </is>
@@ -2826,10 +2398,7 @@
       <c r="C126">
         <v>5.96</v>
       </c>
-      <c r="F126">
-        <v>5.96</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>steamer</t>
         </is>
@@ -2844,10 +2413,7 @@
       <c r="C127">
         <v>5.96</v>
       </c>
-      <c r="F127">
-        <v>5.96</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>curse</t>
         </is>
@@ -2862,10 +2428,7 @@
       <c r="C128">
         <v>5.96</v>
       </c>
-      <c r="F128">
-        <v>5.96</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>joyful</t>
         </is>
@@ -2880,10 +2443,7 @@
       <c r="C129">
         <v>5.96</v>
       </c>
-      <c r="F129">
-        <v>5.96</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>prize</t>
         </is>
@@ -2898,10 +2458,7 @@
       <c r="C130">
         <v>5.96</v>
       </c>
-      <c r="F130">
-        <v>5.96</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>baptism</t>
         </is>
@@ -2916,10 +2473,7 @@
       <c r="C131">
         <v>6</v>
       </c>
-      <c r="F131">
-        <v>6</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
@@ -2934,10 +2488,7 @@
       <c r="C132">
         <v>6</v>
       </c>
-      <c r="F132">
-        <v>6</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>assembling</t>
         </is>
@@ -2952,10 +2503,7 @@
       <c r="C133">
         <v>6</v>
       </c>
-      <c r="F133">
-        <v>6</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>view</t>
         </is>
@@ -2970,10 +2518,7 @@
       <c r="C134">
         <v>6</v>
       </c>
-      <c r="F134">
-        <v>6</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
@@ -2988,10 +2533,7 @@
       <c r="C135">
         <v>6</v>
       </c>
-      <c r="F135">
-        <v>6</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>free</t>
         </is>
@@ -3006,10 +2548,7 @@
       <c r="C136">
         <v>6</v>
       </c>
-      <c r="F136">
-        <v>6</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>lad</t>
         </is>
@@ -3024,10 +2563,7 @@
       <c r="C137">
         <v>6</v>
       </c>
-      <c r="F137">
-        <v>6</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>brain</t>
         </is>
@@ -3042,10 +2578,7 @@
       <c r="C138">
         <v>6</v>
       </c>
-      <c r="F138">
-        <v>6</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -3060,10 +2593,7 @@
       <c r="C139">
         <v>6</v>
       </c>
-      <c r="F139">
-        <v>6</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>brightness</t>
         </is>
@@ -3078,10 +2608,7 @@
       <c r="C140">
         <v>6</v>
       </c>
-      <c r="F140">
-        <v>6</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>mood</t>
         </is>
@@ -3096,10 +2623,7 @@
       <c r="C141">
         <v>6</v>
       </c>
-      <c r="F141">
-        <v>6</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>compassion</t>
         </is>
@@ -3114,10 +2638,7 @@
       <c r="C142">
         <v>6</v>
       </c>
-      <c r="F142">
-        <v>6</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>remedy</t>
         </is>
@@ -3132,10 +2653,7 @@
       <c r="C143">
         <v>6</v>
       </c>
-      <c r="F143">
-        <v>6</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>niece</t>
         </is>
@@ -3150,10 +2668,7 @@
       <c r="C144">
         <v>6</v>
       </c>
-      <c r="F144">
-        <v>6</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>plight</t>
         </is>
@@ -3168,10 +2683,7 @@
       <c r="C145">
         <v>6</v>
       </c>
-      <c r="F145">
-        <v>6</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>paddle</t>
         </is>
@@ -3186,10 +2698,7 @@
       <c r="C146">
         <v>6</v>
       </c>
-      <c r="F146">
-        <v>6</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>panda</t>
         </is>
@@ -3204,10 +2713,7 @@
       <c r="C147">
         <v>6</v>
       </c>
-      <c r="F147">
-        <v>6</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>hit</t>
         </is>
@@ -3222,10 +2728,7 @@
       <c r="C148">
         <v>6</v>
       </c>
-      <c r="F148">
-        <v>6</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>overlook</t>
         </is>
@@ -3240,10 +2743,7 @@
       <c r="C149">
         <v>6</v>
       </c>
-      <c r="F149">
-        <v>6</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>vitamin</t>
         </is>
@@ -3255,16 +2755,13 @@
           <t>granatapfel</t>
         </is>
       </c>
-      <c r="B150">
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
         <v>0.28</v>
       </c>
-      <c r="D150">
-        <v>6</v>
-      </c>
-      <c r="F150">
-        <v>6</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>pomegranate</t>
         </is>
@@ -3276,16 +2773,13 @@
           <t>blazer</t>
         </is>
       </c>
-      <c r="B151">
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
         <v>0.18</v>
       </c>
-      <c r="D151">
-        <v>6</v>
-      </c>
-      <c r="F151">
-        <v>6</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>blazer</t>
         </is>
@@ -3297,16 +2791,13 @@
           <t>blouson</t>
         </is>
       </c>
-      <c r="B152">
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152">
         <v>0.08</v>
       </c>
-      <c r="D152">
-        <v>6</v>
-      </c>
-      <c r="F152">
-        <v>6</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>blouson</t>
         </is>
@@ -3318,13 +2809,10 @@
           <t>sport-bh</t>
         </is>
       </c>
-      <c r="D153">
+      <c r="C153">
         <v>6</v>
       </c>
-      <c r="F153">
-        <v>6</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>sports bra</t>
         </is>
@@ -3336,13 +2824,10 @@
           <t>klebepistole</t>
         </is>
       </c>
-      <c r="D154">
+      <c r="C154">
         <v>6</v>
       </c>
-      <c r="F154">
-        <v>6</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>hot glue gun</t>
         </is>
@@ -3354,16 +2839,13 @@
           <t>dart</t>
         </is>
       </c>
-      <c r="B155">
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
         <v>0.26</v>
       </c>
-      <c r="D155">
-        <v>6</v>
-      </c>
-      <c r="F155">
-        <v>6</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>darts</t>
         </is>
@@ -3375,16 +2857,13 @@
           <t>football</t>
         </is>
       </c>
-      <c r="B156">
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="F156">
-        <v>6</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>football</t>
         </is>
@@ -3396,16 +2875,13 @@
           <t>squash</t>
         </is>
       </c>
-      <c r="B157">
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
         <v>0.06</v>
       </c>
-      <c r="D157">
-        <v>6</v>
-      </c>
-      <c r="F157">
-        <v>6</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>squash</t>
         </is>
@@ -3417,16 +2893,13 @@
           <t>wasserski</t>
         </is>
       </c>
-      <c r="B158">
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
         <v>0.03</v>
       </c>
-      <c r="D158">
-        <v>6</v>
-      </c>
-      <c r="F158">
-        <v>6</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>water ski</t>
         </is>
@@ -3438,13 +2911,10 @@
           <t>sachbearbeiter</t>
         </is>
       </c>
-      <c r="D159">
+      <c r="C159">
         <v>6</v>
       </c>
-      <c r="F159">
-        <v>6</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>case worker</t>
         </is>
@@ -3456,16 +2926,13 @@
           <t>meteorologe</t>
         </is>
       </c>
-      <c r="B160">
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
         <v>0.58</v>
       </c>
-      <c r="D160">
-        <v>6</v>
-      </c>
-      <c r="F160">
-        <v>6</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>meteorologist</t>
         </is>
@@ -3480,10 +2947,7 @@
       <c r="C161">
         <v>6.02</v>
       </c>
-      <c r="F161">
-        <v>6.02</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>haunch</t>
         </is>
@@ -3498,10 +2962,7 @@
       <c r="C162">
         <v>6.02</v>
       </c>
-      <c r="F162">
-        <v>6.02</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>suggestion</t>
         </is>
@@ -3516,10 +2977,7 @@
       <c r="C163">
         <v>6.04</v>
       </c>
-      <c r="F163">
-        <v>6.04</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>departure</t>
         </is>
@@ -3534,10 +2992,7 @@
       <c r="C164">
         <v>6.04</v>
       </c>
-      <c r="F164">
-        <v>6.04</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>intention</t>
         </is>
@@ -3552,10 +3007,7 @@
       <c r="C165">
         <v>6.04</v>
       </c>
-      <c r="F165">
-        <v>6.04</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>reader</t>
         </is>
@@ -3570,10 +3022,7 @@
       <c r="C166">
         <v>6.04</v>
       </c>
-      <c r="F166">
-        <v>6.04</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
@@ -3588,10 +3037,7 @@
       <c r="C167">
         <v>6.04</v>
       </c>
-      <c r="F167">
-        <v>6.04</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>frame</t>
         </is>
@@ -3606,10 +3052,7 @@
       <c r="C168">
         <v>6.05</v>
       </c>
-      <c r="F168">
-        <v>6.05</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>convenient</t>
         </is>
@@ -3624,10 +3067,7 @@
       <c r="C169">
         <v>6.05</v>
       </c>
-      <c r="F169">
-        <v>6.05</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>greedy</t>
         </is>
@@ -3639,28 +3079,19 @@
           <t>paprika</t>
         </is>
       </c>
-      <c r="B170">
-        <v>2.81</v>
-      </c>
       <c r="C170">
         <v>6.05</v>
       </c>
       <c r="D170">
-        <v>3.9</v>
-      </c>
-      <c r="F170">
-        <v>6.05</v>
-      </c>
-      <c r="H170" t="inlineStr">
+        <v>2.81</v>
+      </c>
+      <c r="E170">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>pepper</t>
         </is>
-      </c>
-      <c r="I170">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J170">
-        <v>5.4</v>
       </c>
     </row>
     <row r="171">
@@ -3669,19 +3100,13 @@
           <t>rechen</t>
         </is>
       </c>
-      <c r="B171">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="C171">
         <v>6.05</v>
       </c>
       <c r="D171">
-        <v>5</v>
-      </c>
-      <c r="F171">
-        <v>6.05</v>
-      </c>
-      <c r="H171" t="inlineStr">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>rake</t>
         </is>
@@ -3696,10 +3121,7 @@
       <c r="C172">
         <v>6.05</v>
       </c>
-      <c r="F172">
-        <v>6.05</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>suspect</t>
         </is>
@@ -3711,16 +3133,13 @@
           <t>rugby</t>
         </is>
       </c>
-      <c r="B173">
+      <c r="C173">
+        <v>6.05</v>
+      </c>
+      <c r="D173">
         <v>0.3</v>
       </c>
-      <c r="D173">
-        <v>6.05</v>
-      </c>
-      <c r="F173">
-        <v>6.05</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>rugby</t>
         </is>
@@ -3732,16 +3151,13 @@
           <t>triathlon</t>
         </is>
       </c>
-      <c r="B174">
+      <c r="C174">
+        <v>6.05</v>
+      </c>
+      <c r="D174">
         <v>0.03</v>
       </c>
-      <c r="D174">
-        <v>6.05</v>
-      </c>
-      <c r="F174">
-        <v>6.05</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>triathlon</t>
         </is>
@@ -3753,16 +3169,13 @@
           <t>kosmetiker</t>
         </is>
       </c>
-      <c r="B175">
+      <c r="C175">
+        <v>6.05</v>
+      </c>
+      <c r="D175">
         <v>0.1</v>
       </c>
-      <c r="D175">
-        <v>6.05</v>
-      </c>
-      <c r="F175">
-        <v>6.05</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>beautician</t>
         </is>
@@ -3774,13 +3187,10 @@
           <t>beachvolleyball</t>
         </is>
       </c>
-      <c r="D176">
+      <c r="C176">
         <v>6.06</v>
       </c>
-      <c r="F176">
-        <v>6.06</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>beach volleyball</t>
         </is>
@@ -3795,10 +3205,7 @@
       <c r="C177">
         <v>6.06</v>
       </c>
-      <c r="F177">
-        <v>6.06</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>modification</t>
         </is>
@@ -3813,10 +3220,7 @@
       <c r="C178">
         <v>6.06</v>
       </c>
-      <c r="F178">
-        <v>6.06</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>court</t>
         </is>
@@ -3831,10 +3235,7 @@
       <c r="C179">
         <v>6.06</v>
       </c>
-      <c r="F179">
-        <v>6.06</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>sabre</t>
         </is>
@@ -3849,10 +3250,7 @@
       <c r="C180">
         <v>6.06</v>
       </c>
-      <c r="F180">
-        <v>6.06</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
@@ -3867,10 +3265,7 @@
       <c r="C181">
         <v>6.06</v>
       </c>
-      <c r="F181">
-        <v>6.06</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>calculator</t>
         </is>
@@ -3885,10 +3280,7 @@
       <c r="C182">
         <v>6.06</v>
       </c>
-      <c r="F182">
-        <v>6.06</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>fatherly</t>
         </is>
@@ -3900,19 +3292,13 @@
           <t>weste</t>
         </is>
       </c>
-      <c r="B183">
-        <v>4.9</v>
-      </c>
       <c r="C183">
         <v>6.06</v>
       </c>
       <c r="D183">
-        <v>4.1</v>
-      </c>
-      <c r="F183">
-        <v>6.06</v>
-      </c>
-      <c r="H183" t="inlineStr">
+        <v>4.9</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>waistcoat</t>
         </is>
@@ -3927,10 +3313,7 @@
       <c r="C184">
         <v>6.07</v>
       </c>
-      <c r="F184">
-        <v>6.07</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>lonely</t>
         </is>
@@ -3945,10 +3328,7 @@
       <c r="C185">
         <v>6.07</v>
       </c>
-      <c r="F185">
-        <v>6.07</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>silk</t>
         </is>
@@ -3963,10 +3343,7 @@
       <c r="C186">
         <v>6.07</v>
       </c>
-      <c r="F186">
-        <v>6.07</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>mare</t>
         </is>
@@ -3981,10 +3358,7 @@
       <c r="C187">
         <v>6.08</v>
       </c>
-      <c r="F187">
-        <v>6.08</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>bank holiday</t>
         </is>
@@ -3999,10 +3373,7 @@
       <c r="C188">
         <v>6.08</v>
       </c>
-      <c r="F188">
-        <v>6.08</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>use</t>
         </is>
@@ -4017,10 +3388,7 @@
       <c r="C189">
         <v>6.08</v>
       </c>
-      <c r="F189">
-        <v>6.08</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>din</t>
         </is>
@@ -4035,10 +3403,7 @@
       <c r="C190">
         <v>6.08</v>
       </c>
-      <c r="F190">
-        <v>6.08</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>restaurant</t>
         </is>
@@ -4053,10 +3418,7 @@
       <c r="C191">
         <v>6.08</v>
       </c>
-      <c r="F191">
-        <v>6.08</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>prop</t>
         </is>
@@ -4071,10 +3433,7 @@
       <c r="C192">
         <v>6.08</v>
       </c>
-      <c r="F192">
-        <v>6.08</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>deserve</t>
         </is>
@@ -4089,10 +3448,7 @@
       <c r="C193">
         <v>6.09</v>
       </c>
-      <c r="F193">
-        <v>6.09</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>keep back</t>
         </is>
@@ -4107,10 +3463,7 @@
       <c r="C194">
         <v>6.1</v>
       </c>
-      <c r="F194">
-        <v>6.1</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>stutter</t>
         </is>
@@ -4125,10 +3478,7 @@
       <c r="C195">
         <v>6.1</v>
       </c>
-      <c r="F195">
-        <v>6.1</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>universe</t>
         </is>
@@ -4140,16 +3490,13 @@
           <t>archäologe</t>
         </is>
       </c>
-      <c r="B196">
+      <c r="C196">
+        <v>6.1</v>
+      </c>
+      <c r="D196">
         <v>1.79</v>
       </c>
-      <c r="D196">
-        <v>6.1</v>
-      </c>
-      <c r="F196">
-        <v>6.1</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>archaeologist</t>
         </is>
@@ -4161,16 +3508,13 @@
           <t>portier</t>
         </is>
       </c>
-      <c r="B197">
+      <c r="C197">
+        <v>6.1</v>
+      </c>
+      <c r="D197">
         <v>6.29</v>
       </c>
-      <c r="D197">
-        <v>6.1</v>
-      </c>
-      <c r="F197">
-        <v>6.1</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>doorman</t>
         </is>
@@ -4182,13 +3526,10 @@
           <t>kirschtomate</t>
         </is>
       </c>
-      <c r="D198">
+      <c r="C198">
         <v>6.11</v>
       </c>
-      <c r="F198">
-        <v>6.11</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>cherry tomato</t>
         </is>
@@ -4200,16 +3541,13 @@
           <t>restaurator</t>
         </is>
       </c>
-      <c r="B199">
+      <c r="C199">
+        <v>6.11</v>
+      </c>
+      <c r="D199">
         <v>0.6</v>
       </c>
-      <c r="D199">
-        <v>6.11</v>
-      </c>
-      <c r="F199">
-        <v>6.11</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>conservator</t>
         </is>
@@ -4221,16 +3559,13 @@
           <t>steward</t>
         </is>
       </c>
-      <c r="B200">
+      <c r="C200">
+        <v>6.11</v>
+      </c>
+      <c r="D200">
         <v>0.92</v>
       </c>
-      <c r="D200">
-        <v>6.11</v>
-      </c>
-      <c r="F200">
-        <v>6.11</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>steward</t>
         </is>
@@ -4242,19 +3577,13 @@
           <t>feile</t>
         </is>
       </c>
-      <c r="B201">
-        <v>0.92</v>
-      </c>
       <c r="C201">
         <v>6.11</v>
       </c>
       <c r="D201">
-        <v>4.05</v>
-      </c>
-      <c r="F201">
-        <v>6.11</v>
-      </c>
-      <c r="H201" t="inlineStr">
+        <v>0.92</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>file</t>
         </is>
@@ -4269,10 +3598,7 @@
       <c r="C202">
         <v>6.11</v>
       </c>
-      <c r="F202">
-        <v>6.11</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>violin music</t>
         </is>
@@ -4287,10 +3613,7 @@
       <c r="C203">
         <v>6.11</v>
       </c>
-      <c r="F203">
-        <v>6.11</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>violinist</t>
         </is>
@@ -4305,10 +3628,7 @@
       <c r="C204">
         <v>6.11</v>
       </c>
-      <c r="F204">
-        <v>6.11</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>confetti</t>
         </is>
@@ -4323,10 +3643,7 @@
       <c r="C205">
         <v>6.11</v>
       </c>
-      <c r="F205">
-        <v>6.11</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>source</t>
         </is>
@@ -4341,10 +3658,7 @@
       <c r="C206">
         <v>6.11</v>
       </c>
-      <c r="F206">
-        <v>6.11</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>renounce</t>
         </is>
@@ -4359,10 +3673,7 @@
       <c r="C207">
         <v>6.11</v>
       </c>
-      <c r="F207">
-        <v>6.11</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>choose</t>
         </is>
@@ -4374,16 +3685,13 @@
           <t>bongo</t>
         </is>
       </c>
-      <c r="B208">
+      <c r="C208">
+        <v>6.12</v>
+      </c>
+      <c r="D208">
         <v>0.43</v>
       </c>
-      <c r="D208">
-        <v>6.12</v>
-      </c>
-      <c r="F208">
-        <v>6.12</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>bongo drums</t>
         </is>
@@ -4398,10 +3706,7 @@
       <c r="C209">
         <v>6.12</v>
       </c>
-      <c r="F209">
-        <v>6.12</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>fall</t>
         </is>
@@ -4416,10 +3721,7 @@
       <c r="C210">
         <v>6.12</v>
       </c>
-      <c r="F210">
-        <v>6.12</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>liquid</t>
         </is>
@@ -4434,10 +3736,7 @@
       <c r="C211">
         <v>6.12</v>
       </c>
-      <c r="F211">
-        <v>6.12</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>pursue</t>
         </is>
@@ -4449,13 +3748,10 @@
           <t>inbusschlüssel</t>
         </is>
       </c>
-      <c r="D212">
+      <c r="C212">
         <v>6.12</v>
       </c>
-      <c r="F212">
-        <v>6.12</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>allen key</t>
         </is>
@@ -4470,10 +3766,7 @@
       <c r="C213">
         <v>6.13</v>
       </c>
-      <c r="F213">
-        <v>6.13</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>beer</t>
         </is>
@@ -4488,10 +3781,7 @@
       <c r="C214">
         <v>6.13</v>
       </c>
-      <c r="F214">
-        <v>6.13</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>grill</t>
         </is>
@@ -4506,10 +3796,7 @@
       <c r="C215">
         <v>6.13</v>
       </c>
-      <c r="F215">
-        <v>6.13</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>villain</t>
         </is>
@@ -4524,10 +3811,7 @@
       <c r="C216">
         <v>6.13</v>
       </c>
-      <c r="F216">
-        <v>6.13</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>coal</t>
         </is>
@@ -4542,10 +3826,7 @@
       <c r="C217">
         <v>6.13</v>
       </c>
-      <c r="F217">
-        <v>6.13</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>tempo</t>
         </is>
@@ -4560,10 +3841,7 @@
       <c r="C218">
         <v>6.13</v>
       </c>
-      <c r="F218">
-        <v>6.13</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>uncomfortable</t>
         </is>
@@ -4578,10 +3856,7 @@
       <c r="C219">
         <v>6.14</v>
       </c>
-      <c r="F219">
-        <v>6.14</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>aquarium</t>
         </is>
@@ -4596,10 +3871,7 @@
       <c r="C220">
         <v>6.14</v>
       </c>
-      <c r="F220">
-        <v>6.14</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>matrimony</t>
         </is>
@@ -4614,10 +3886,7 @@
       <c r="C221">
         <v>6.14</v>
       </c>
-      <c r="F221">
-        <v>6.14</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>wreath</t>
         </is>
@@ -4632,10 +3901,7 @@
       <c r="C222">
         <v>6.14</v>
       </c>
-      <c r="F222">
-        <v>6.14</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>metre</t>
         </is>
@@ -4650,10 +3916,7 @@
       <c r="C223">
         <v>6.15</v>
       </c>
-      <c r="F223">
-        <v>6.15</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>dimly-lit</t>
         </is>
@@ -4668,10 +3931,7 @@
       <c r="C224">
         <v>6.15</v>
       </c>
-      <c r="F224">
-        <v>6.15</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>margarine</t>
         </is>
@@ -4683,16 +3943,13 @@
           <t>limette</t>
         </is>
       </c>
-      <c r="B225">
+      <c r="C225">
+        <v>6.15</v>
+      </c>
+      <c r="D225">
         <v>0.03</v>
       </c>
-      <c r="D225">
-        <v>6.15</v>
-      </c>
-      <c r="F225">
-        <v>6.15</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>lime</t>
         </is>
@@ -4704,13 +3961,10 @@
           <t>hot pant</t>
         </is>
       </c>
-      <c r="D226">
+      <c r="C226">
         <v>6.15</v>
       </c>
-      <c r="F226">
-        <v>6.15</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>hot pants</t>
         </is>
@@ -4722,16 +3976,13 @@
           <t>pumps</t>
         </is>
       </c>
-      <c r="B227">
+      <c r="C227">
+        <v>6.15</v>
+      </c>
+      <c r="D227">
         <v>0.29</v>
       </c>
-      <c r="D227">
-        <v>6.15</v>
-      </c>
-      <c r="F227">
-        <v>6.15</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>pumps</t>
         </is>
@@ -4743,16 +3994,13 @@
           <t>computerfachmann</t>
         </is>
       </c>
-      <c r="B228">
+      <c r="C228">
+        <v>6.15</v>
+      </c>
+      <c r="D228">
         <v>0.03</v>
       </c>
-      <c r="D228">
-        <v>6.15</v>
-      </c>
-      <c r="F228">
-        <v>6.15</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>computer expert</t>
         </is>
@@ -4764,16 +4012,13 @@
           <t>produzent</t>
         </is>
       </c>
-      <c r="B229">
+      <c r="C229">
+        <v>6.15</v>
+      </c>
+      <c r="D229">
         <v>8.039999999999999</v>
       </c>
-      <c r="D229">
-        <v>6.15</v>
-      </c>
-      <c r="F229">
-        <v>6.15</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>producer</t>
         </is>
@@ -4785,16 +4030,13 @@
           <t>ingwer</t>
         </is>
       </c>
-      <c r="B230">
+      <c r="C230">
+        <v>6.16</v>
+      </c>
+      <c r="D230">
         <v>0.61</v>
       </c>
-      <c r="D230">
-        <v>6.16</v>
-      </c>
-      <c r="F230">
-        <v>6.16</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>ginger</t>
         </is>
@@ -4809,10 +4051,7 @@
       <c r="C231">
         <v>6.16</v>
       </c>
-      <c r="F231">
-        <v>6.16</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>profession</t>
         </is>
@@ -4827,10 +4066,7 @@
       <c r="C232">
         <v>6.16</v>
       </c>
-      <c r="F232">
-        <v>6.16</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>bride</t>
         </is>
@@ -4845,10 +4081,7 @@
       <c r="C233">
         <v>6.16</v>
       </c>
-      <c r="F233">
-        <v>6.16</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -4863,10 +4096,7 @@
       <c r="C234">
         <v>6.16</v>
       </c>
-      <c r="F234">
-        <v>6.16</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>diligent</t>
         </is>
@@ -4881,10 +4111,7 @@
       <c r="C235">
         <v>6.16</v>
       </c>
-      <c r="F235">
-        <v>6.16</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>splendour</t>
         </is>
@@ -4899,10 +4126,7 @@
       <c r="C236">
         <v>6.16</v>
       </c>
-      <c r="F236">
-        <v>6.16</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>warehouse</t>
         </is>
@@ -4917,10 +4141,7 @@
       <c r="C237">
         <v>6.16</v>
       </c>
-      <c r="F237">
-        <v>6.16</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>solution</t>
         </is>
@@ -4935,10 +4156,7 @@
       <c r="C238">
         <v>6.16</v>
       </c>
-      <c r="F238">
-        <v>6.16</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>desire</t>
         </is>
@@ -4950,16 +4168,13 @@
           <t>schalotte</t>
         </is>
       </c>
-      <c r="B239">
+      <c r="C239">
+        <v>6.17</v>
+      </c>
+      <c r="D239">
         <v>0.19</v>
       </c>
-      <c r="D239">
-        <v>6.17</v>
-      </c>
-      <c r="F239">
-        <v>6.17</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>shallot</t>
         </is>
@@ -4971,19 +4186,13 @@
           <t>aprikose</t>
         </is>
       </c>
-      <c r="B240">
-        <v>1.55</v>
-      </c>
       <c r="C240">
         <v>6.17</v>
       </c>
       <c r="D240">
-        <v>3.35</v>
-      </c>
-      <c r="F240">
-        <v>6.17</v>
-      </c>
-      <c r="H240" t="inlineStr">
+        <v>1.55</v>
+      </c>
+      <c r="G240" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
@@ -4995,19 +4204,13 @@
           <t>dachs</t>
         </is>
       </c>
-      <c r="B241">
-        <v>2.43</v>
-      </c>
       <c r="C241">
         <v>6.17</v>
       </c>
       <c r="D241">
-        <v>3.6</v>
-      </c>
-      <c r="F241">
-        <v>6.17</v>
-      </c>
-      <c r="H241" t="inlineStr">
+        <v>2.43</v>
+      </c>
+      <c r="G241" t="inlineStr">
         <is>
           <t>badger</t>
         </is>
@@ -5022,10 +4225,7 @@
       <c r="C242">
         <v>6.17</v>
       </c>
-      <c r="F242">
-        <v>6.17</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>peace</t>
         </is>
@@ -5040,10 +4240,7 @@
       <c r="C243">
         <v>6.17</v>
       </c>
-      <c r="F243">
-        <v>6.17</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>crack</t>
         </is>
@@ -5058,10 +4255,7 @@
       <c r="C244">
         <v>6.17</v>
       </c>
-      <c r="F244">
-        <v>6.17</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>lend</t>
         </is>
@@ -5076,10 +4270,7 @@
       <c r="C245">
         <v>6.17</v>
       </c>
-      <c r="F245">
-        <v>6.17</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>guard</t>
         </is>
@@ -5091,22 +4282,16 @@
           <t>rucola</t>
         </is>
       </c>
-      <c r="D246">
+      <c r="C246">
         <v>6.18</v>
       </c>
-      <c r="F246">
-        <v>6.18</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="E246">
+        <v>4.71</v>
+      </c>
+      <c r="G246" t="inlineStr">
         <is>
           <t>rocket</t>
         </is>
-      </c>
-      <c r="I246">
-        <v>4.71</v>
-      </c>
-      <c r="J246">
-        <v>5.59</v>
       </c>
     </row>
     <row r="247">
@@ -5118,10 +4303,7 @@
       <c r="C247">
         <v>6.18</v>
       </c>
-      <c r="F247">
-        <v>6.18</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>felt</t>
         </is>
@@ -5136,10 +4318,7 @@
       <c r="C248">
         <v>6.18</v>
       </c>
-      <c r="F248">
-        <v>6.18</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>succeed</t>
         </is>
@@ -5154,10 +4333,7 @@
       <c r="C249">
         <v>6.18</v>
       </c>
-      <c r="F249">
-        <v>6.18</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>poster</t>
         </is>
@@ -5172,10 +4348,7 @@
       <c r="C250">
         <v>6.19</v>
       </c>
-      <c r="F250">
-        <v>6.19</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>give a share</t>
         </is>
@@ -5190,10 +4363,7 @@
       <c r="C251">
         <v>6.19</v>
       </c>
-      <c r="F251">
-        <v>6.19</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>border</t>
         </is>
@@ -5208,10 +4378,7 @@
       <c r="C252">
         <v>6.2</v>
       </c>
-      <c r="F252">
-        <v>6.2</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>leather</t>
         </is>
@@ -5226,10 +4393,7 @@
       <c r="C253">
         <v>6.2</v>
       </c>
-      <c r="F253">
-        <v>6.2</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>association</t>
         </is>
@@ -5244,10 +4408,7 @@
       <c r="C254">
         <v>6.2</v>
       </c>
-      <c r="F254">
-        <v>6.2</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>role model</t>
         </is>
@@ -5259,13 +4420,10 @@
           <t>fliesenschneider</t>
         </is>
       </c>
-      <c r="D255">
+      <c r="C255">
         <v>6.2</v>
       </c>
-      <c r="F255">
-        <v>6.2</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>tile cutter</t>
         </is>
@@ -5277,16 +4435,13 @@
           <t>redakteur</t>
         </is>
       </c>
-      <c r="B256">
+      <c r="C256">
+        <v>6.2</v>
+      </c>
+      <c r="D256">
         <v>12.73</v>
       </c>
-      <c r="D256">
-        <v>6.2</v>
-      </c>
-      <c r="F256">
-        <v>6.2</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
@@ -5298,16 +4453,13 @@
           <t>hotelfachmann</t>
         </is>
       </c>
-      <c r="B257">
+      <c r="C257">
+        <v>6.2</v>
+      </c>
+      <c r="D257">
         <v>0.02</v>
       </c>
-      <c r="D257">
-        <v>6.2</v>
-      </c>
-      <c r="F257">
-        <v>6.2</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>hotel manager</t>
         </is>
@@ -5319,16 +4471,13 @@
           <t>orthopäde</t>
         </is>
       </c>
-      <c r="B258">
+      <c r="C258">
+        <v>6.2</v>
+      </c>
+      <c r="D258">
         <v>0.29</v>
       </c>
-      <c r="D258">
-        <v>6.2</v>
-      </c>
-      <c r="F258">
-        <v>6.2</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>orthopedist</t>
         </is>
@@ -5343,10 +4492,7 @@
       <c r="C259">
         <v>6.21</v>
       </c>
-      <c r="F259">
-        <v>6.21</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>serve</t>
         </is>
@@ -5361,10 +4507,7 @@
       <c r="C260">
         <v>6.21</v>
       </c>
-      <c r="F260">
-        <v>6.21</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>ruin</t>
         </is>
@@ -5379,10 +4522,7 @@
       <c r="C261">
         <v>6.22</v>
       </c>
-      <c r="F261">
-        <v>6.22</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>comply</t>
         </is>
@@ -5397,10 +4537,7 @@
       <c r="C262">
         <v>6.22</v>
       </c>
-      <c r="F262">
-        <v>6.22</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>deal with</t>
         </is>
@@ -5415,10 +4552,7 @@
       <c r="C263">
         <v>6.22</v>
       </c>
-      <c r="F263">
-        <v>6.22</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>ghost</t>
         </is>
@@ -5433,10 +4567,7 @@
       <c r="C264">
         <v>6.22</v>
       </c>
-      <c r="F264">
-        <v>6.22</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>weakling</t>
         </is>
@@ -5451,10 +4582,7 @@
       <c r="C265">
         <v>6.23</v>
       </c>
-      <c r="F265">
-        <v>6.23</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>cement</t>
         </is>
@@ -5466,13 +4594,10 @@
           <t>klippenspringen</t>
         </is>
       </c>
-      <c r="D266">
+      <c r="C266">
         <v>6.24</v>
       </c>
-      <c r="F266">
-        <v>6.24</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>cliff diving</t>
         </is>
@@ -5487,10 +4612,7 @@
       <c r="C267">
         <v>6.24</v>
       </c>
-      <c r="F267">
-        <v>6.24</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>result in</t>
         </is>
@@ -5505,10 +4627,7 @@
       <c r="C268">
         <v>6.24</v>
       </c>
-      <c r="F268">
-        <v>6.24</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>reach</t>
         </is>
@@ -5523,10 +4642,7 @@
       <c r="C269">
         <v>6.24</v>
       </c>
-      <c r="F269">
-        <v>6.24</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>cutlet</t>
         </is>
@@ -5538,19 +4654,13 @@
           <t>tennis</t>
         </is>
       </c>
-      <c r="B270">
-        <v>2.08</v>
-      </c>
       <c r="C270">
         <v>6.24</v>
       </c>
       <c r="D270">
-        <v>4.3</v>
-      </c>
-      <c r="F270">
-        <v>6.24</v>
-      </c>
-      <c r="H270" t="inlineStr">
+        <v>2.08</v>
+      </c>
+      <c r="G270" t="inlineStr">
         <is>
           <t>tennis</t>
         </is>
@@ -5565,10 +4675,7 @@
       <c r="C271">
         <v>6.25</v>
       </c>
-      <c r="F271">
-        <v>6.25</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>oar</t>
         </is>
@@ -5583,10 +4690,7 @@
       <c r="C272">
         <v>6.25</v>
       </c>
-      <c r="F272">
-        <v>6.25</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>nonsense</t>
         </is>
@@ -5601,10 +4705,7 @@
       <c r="C273">
         <v>6.25</v>
       </c>
-      <c r="F273">
-        <v>6.25</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>hesitate</t>
         </is>
@@ -5616,16 +4717,13 @@
           <t>aerobic</t>
         </is>
       </c>
-      <c r="B274">
+      <c r="C274">
+        <v>6.25</v>
+      </c>
+      <c r="D274">
         <v>0.02</v>
       </c>
-      <c r="D274">
-        <v>6.25</v>
-      </c>
-      <c r="F274">
-        <v>6.25</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>aerobics</t>
         </is>
@@ -5637,16 +4735,13 @@
           <t>bankkaufmann</t>
         </is>
       </c>
-      <c r="B275">
+      <c r="C275">
+        <v>6.25</v>
+      </c>
+      <c r="D275">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D275">
-        <v>6.25</v>
-      </c>
-      <c r="F275">
-        <v>6.25</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>banker</t>
         </is>
@@ -5658,16 +4753,13 @@
           <t>modedesigner</t>
         </is>
       </c>
-      <c r="B276">
+      <c r="C276">
+        <v>6.25</v>
+      </c>
+      <c r="D276">
         <v>0.01</v>
       </c>
-      <c r="D276">
-        <v>6.25</v>
-      </c>
-      <c r="F276">
-        <v>6.25</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>fashion designer</t>
         </is>
@@ -5679,13 +4771,10 @@
           <t>restaurantfachmann</t>
         </is>
       </c>
-      <c r="D277">
+      <c r="C277">
         <v>6.25</v>
       </c>
-      <c r="F277">
-        <v>6.25</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>fully qualified waiter</t>
         </is>
@@ -5697,16 +4786,13 @@
           <t>bürokaufmann</t>
         </is>
       </c>
-      <c r="B278">
+      <c r="C278">
+        <v>6.25</v>
+      </c>
+      <c r="D278">
         <v>0.01</v>
       </c>
-      <c r="D278">
-        <v>6.25</v>
-      </c>
-      <c r="F278">
-        <v>6.25</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>office administrator</t>
         </is>
@@ -5718,16 +4804,13 @@
           <t>feinmechaniker</t>
         </is>
       </c>
-      <c r="B279">
+      <c r="C279">
+        <v>6.25</v>
+      </c>
+      <c r="D279">
         <v>0.17</v>
       </c>
-      <c r="D279">
-        <v>6.25</v>
-      </c>
-      <c r="F279">
-        <v>6.25</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>precision engineer</t>
         </is>
@@ -5742,10 +4825,7 @@
       <c r="C280">
         <v>6.26</v>
       </c>
-      <c r="F280">
-        <v>6.26</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>applause</t>
         </is>
@@ -5757,19 +4837,13 @@
           <t>libelle</t>
         </is>
       </c>
-      <c r="B281">
-        <v>1.81</v>
-      </c>
       <c r="C281">
         <v>6.26</v>
       </c>
       <c r="D281">
-        <v>3.85</v>
-      </c>
-      <c r="F281">
-        <v>6.26</v>
-      </c>
-      <c r="H281" t="inlineStr">
+        <v>1.81</v>
+      </c>
+      <c r="G281" t="inlineStr">
         <is>
           <t>dragonfly</t>
         </is>
@@ -5781,13 +4855,10 @@
           <t>lebensmittelkontrolleur</t>
         </is>
       </c>
-      <c r="D282">
+      <c r="C282">
         <v>6.26</v>
       </c>
-      <c r="F282">
-        <v>6.26</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>food inspector</t>
         </is>
@@ -5802,10 +4873,7 @@
       <c r="C283">
         <v>6.27</v>
       </c>
-      <c r="F283">
-        <v>6.27</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>slope</t>
         </is>
@@ -5820,10 +4888,7 @@
       <c r="C284">
         <v>6.28</v>
       </c>
-      <c r="F284">
-        <v>6.28</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>stubborn fellow</t>
         </is>
@@ -5835,19 +4900,13 @@
           <t>elch</t>
         </is>
       </c>
-      <c r="B285">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="C285">
         <v>6.28</v>
       </c>
       <c r="D285">
-        <v>3.95</v>
-      </c>
-      <c r="F285">
-        <v>6.28</v>
-      </c>
-      <c r="H285" t="inlineStr">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G285" t="inlineStr">
         <is>
           <t>elk</t>
         </is>
@@ -5862,10 +4921,7 @@
       <c r="C286">
         <v>6.28</v>
       </c>
-      <c r="F286">
-        <v>6.28</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>art</t>
         </is>
@@ -5880,10 +4936,7 @@
       <c r="C287">
         <v>6.28</v>
       </c>
-      <c r="F287">
-        <v>6.28</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>unfair</t>
         </is>
@@ -5898,10 +4951,7 @@
       <c r="C288">
         <v>6.28</v>
       </c>
-      <c r="F288">
-        <v>6.28</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>take apart</t>
         </is>
@@ -5916,10 +4966,7 @@
       <c r="C289">
         <v>6.29</v>
       </c>
-      <c r="F289">
-        <v>6.29</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>falcon</t>
         </is>
@@ -5934,10 +4981,7 @@
       <c r="C290">
         <v>6.29</v>
       </c>
-      <c r="F290">
-        <v>6.29</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>creepy</t>
         </is>
@@ -5952,10 +4996,7 @@
       <c r="C291">
         <v>6.29</v>
       </c>
-      <c r="F291">
-        <v>6.29</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>hare's paw</t>
         </is>
@@ -5970,10 +5011,7 @@
       <c r="C292">
         <v>6.29</v>
       </c>
-      <c r="F292">
-        <v>6.29</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>household</t>
         </is>
@@ -5988,10 +5026,7 @@
       <c r="C293">
         <v>6.29</v>
       </c>
-      <c r="F293">
-        <v>6.29</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>gremlin</t>
         </is>
@@ -6006,19 +5041,13 @@
       <c r="C294">
         <v>6.29</v>
       </c>
-      <c r="F294">
-        <v>6.29</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="E294">
+        <v>4.21</v>
+      </c>
+      <c r="G294" t="inlineStr">
         <is>
           <t>whistle</t>
         </is>
-      </c>
-      <c r="I294">
-        <v>4.21</v>
-      </c>
-      <c r="J294">
-        <v>5.73</v>
       </c>
     </row>
     <row r="295">
@@ -6030,10 +5059,7 @@
       <c r="C295">
         <v>6.29</v>
       </c>
-      <c r="F295">
-        <v>6.29</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>filled chocolate</t>
         </is>
@@ -6048,10 +5074,7 @@
       <c r="C296">
         <v>6.29</v>
       </c>
-      <c r="F296">
-        <v>6.29</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>powder</t>
         </is>
@@ -6066,10 +5089,7 @@
       <c r="C297">
         <v>6.29</v>
       </c>
-      <c r="F297">
-        <v>6.29</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>save</t>
         </is>
@@ -6084,10 +5104,7 @@
       <c r="C298">
         <v>6.29</v>
       </c>
-      <c r="F298">
-        <v>6.29</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>goalkeeper</t>
         </is>
@@ -6102,10 +5119,7 @@
       <c r="C299">
         <v>6.3</v>
       </c>
-      <c r="F299">
-        <v>6.3</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>give up</t>
         </is>
@@ -6120,10 +5134,7 @@
       <c r="C300">
         <v>6.3</v>
       </c>
-      <c r="F300">
-        <v>6.3</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>remove</t>
         </is>
@@ -6138,10 +5149,7 @@
       <c r="C301">
         <v>6.3</v>
       </c>
-      <c r="F301">
-        <v>6.3</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>voluntary</t>
         </is>
@@ -6156,10 +5164,7 @@
       <c r="C302">
         <v>6.3</v>
       </c>
-      <c r="F302">
-        <v>6.3</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>filling</t>
         </is>
@@ -6174,10 +5179,7 @@
       <c r="C303">
         <v>6.3</v>
       </c>
-      <c r="F303">
-        <v>6.3</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>cauldron</t>
         </is>
@@ -6192,10 +5194,7 @@
       <c r="C304">
         <v>6.3</v>
       </c>
-      <c r="F304">
-        <v>6.3</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>rear light</t>
         </is>
@@ -6207,13 +5206,10 @@
           <t>cocktailtomate</t>
         </is>
       </c>
-      <c r="D305">
+      <c r="C305">
         <v>6.3</v>
       </c>
-      <c r="F305">
-        <v>6.3</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>cocktail tomato</t>
         </is>
@@ -6225,16 +5221,13 @@
           <t>raumausstatter</t>
         </is>
       </c>
-      <c r="B306">
+      <c r="C306">
+        <v>6.3</v>
+      </c>
+      <c r="D306">
         <v>0.01</v>
       </c>
-      <c r="D306">
-        <v>6.3</v>
-      </c>
-      <c r="F306">
-        <v>6.3</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>interior designer</t>
         </is>
@@ -6246,16 +5239,13 @@
           <t>physiotherapeut</t>
         </is>
       </c>
-      <c r="B307">
+      <c r="C307">
+        <v>6.3</v>
+      </c>
+      <c r="D307">
         <v>0.05</v>
       </c>
-      <c r="D307">
-        <v>6.3</v>
-      </c>
-      <c r="F307">
-        <v>6.3</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>physiotherapist</t>
         </is>
@@ -6270,10 +5260,7 @@
       <c r="C308">
         <v>6.31</v>
       </c>
-      <c r="F308">
-        <v>6.31</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>request</t>
         </is>
@@ -6288,10 +5275,7 @@
       <c r="C309">
         <v>6.31</v>
       </c>
-      <c r="F309">
-        <v>6.31</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>clapping</t>
         </is>
@@ -6306,10 +5290,7 @@
       <c r="C310">
         <v>6.31</v>
       </c>
-      <c r="F310">
-        <v>6.31</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>finder</t>
         </is>
@@ -6321,19 +5302,13 @@
           <t>gazelle</t>
         </is>
       </c>
-      <c r="B311">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="C311">
         <v>6.31</v>
       </c>
       <c r="D311">
-        <v>4.8</v>
-      </c>
-      <c r="F311">
-        <v>6.31</v>
-      </c>
-      <c r="H311" t="inlineStr">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G311" t="inlineStr">
         <is>
           <t>gazelle</t>
         </is>
@@ -6348,10 +5323,7 @@
       <c r="C312">
         <v>6.31</v>
       </c>
-      <c r="F312">
-        <v>6.31</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>hole puncher</t>
         </is>
@@ -6366,10 +5338,7 @@
       <c r="C313">
         <v>6.31</v>
       </c>
-      <c r="F313">
-        <v>6.31</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>skeleton</t>
         </is>
@@ -6384,10 +5353,7 @@
       <c r="C314">
         <v>6.32</v>
       </c>
-      <c r="F314">
-        <v>6.32</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>darkness</t>
         </is>
@@ -6402,10 +5368,7 @@
       <c r="C315">
         <v>6.32</v>
       </c>
-      <c r="F315">
-        <v>6.32</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>lever</t>
         </is>
@@ -6420,10 +5383,7 @@
       <c r="C316">
         <v>6.32</v>
       </c>
-      <c r="F316">
-        <v>6.32</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>effort</t>
         </is>
@@ -6438,10 +5398,7 @@
       <c r="C317">
         <v>6.32</v>
       </c>
-      <c r="F317">
-        <v>6.32</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>museum</t>
         </is>
@@ -6456,10 +5413,7 @@
       <c r="C318">
         <v>6.33</v>
       </c>
-      <c r="F318">
-        <v>6.33</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>armpit</t>
         </is>
@@ -6474,10 +5428,7 @@
       <c r="C319">
         <v>6.33</v>
       </c>
-      <c r="F319">
-        <v>6.33</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>boxer</t>
         </is>
@@ -6492,10 +5443,7 @@
       <c r="C320">
         <v>6.33</v>
       </c>
-      <c r="F320">
-        <v>6.33</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>serve</t>
         </is>
@@ -6510,10 +5458,7 @@
       <c r="C321">
         <v>6.33</v>
       </c>
-      <c r="F321">
-        <v>6.33</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
@@ -6528,10 +5473,7 @@
       <c r="C322">
         <v>6.33</v>
       </c>
-      <c r="F322">
-        <v>6.33</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>laze about</t>
         </is>
@@ -6546,10 +5488,7 @@
       <c r="C323">
         <v>6.33</v>
       </c>
-      <c r="F323">
-        <v>6.33</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>mysterious</t>
         </is>
@@ -6564,10 +5503,7 @@
       <c r="C324">
         <v>6.33</v>
       </c>
-      <c r="F324">
-        <v>6.33</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>comrade</t>
         </is>
@@ -6582,10 +5518,7 @@
       <c r="C325">
         <v>6.33</v>
       </c>
-      <c r="F325">
-        <v>6.33</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>liver</t>
         </is>
@@ -6600,10 +5533,7 @@
       <c r="C326">
         <v>6.33</v>
       </c>
-      <c r="F326">
-        <v>6.33</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>roast beef</t>
         </is>
@@ -6618,10 +5548,7 @@
       <c r="C327">
         <v>6.33</v>
       </c>
-      <c r="F327">
-        <v>6.33</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>eerie</t>
         </is>
@@ -6636,10 +5563,7 @@
       <c r="C328">
         <v>6.33</v>
       </c>
-      <c r="F328">
-        <v>6.33</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>wart</t>
         </is>
@@ -6654,10 +5578,7 @@
       <c r="C329">
         <v>6.35</v>
       </c>
-      <c r="F329">
-        <v>6.35</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>operation</t>
         </is>
@@ -6672,10 +5593,7 @@
       <c r="C330">
         <v>6.35</v>
       </c>
-      <c r="F330">
-        <v>6.35</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>cute</t>
         </is>
@@ -6690,10 +5608,7 @@
       <c r="C331">
         <v>6.35</v>
       </c>
-      <c r="F331">
-        <v>6.35</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
@@ -6708,10 +5623,7 @@
       <c r="C332">
         <v>6.35</v>
       </c>
-      <c r="F332">
-        <v>6.35</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>weave</t>
         </is>
@@ -6723,16 +5635,13 @@
           <t>yoga</t>
         </is>
       </c>
-      <c r="B333">
+      <c r="C333">
+        <v>6.35</v>
+      </c>
+      <c r="D333">
         <v>0.78</v>
       </c>
-      <c r="D333">
-        <v>6.35</v>
-      </c>
-      <c r="F333">
-        <v>6.35</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>yoga</t>
         </is>
@@ -6744,13 +5653,10 @@
           <t>rettungsassistent</t>
         </is>
       </c>
-      <c r="D334">
+      <c r="C334">
         <v>6.35</v>
       </c>
-      <c r="F334">
-        <v>6.35</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>paramedic</t>
         </is>
@@ -6765,10 +5671,7 @@
       <c r="C335">
         <v>6.36</v>
       </c>
-      <c r="F335">
-        <v>6.36</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>eternal</t>
         </is>
@@ -6783,19 +5686,13 @@
       <c r="C336">
         <v>6.36</v>
       </c>
-      <c r="F336">
-        <v>6.36</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="E336">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G336" t="inlineStr">
         <is>
           <t>pepper</t>
         </is>
-      </c>
-      <c r="I336">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J336">
-        <v>5.4</v>
       </c>
     </row>
     <row r="337">
@@ -6804,16 +5701,13 @@
           <t>snowboarding</t>
         </is>
       </c>
-      <c r="B337">
+      <c r="C337">
+        <v>6.37</v>
+      </c>
+      <c r="D337">
         <v>0.01</v>
       </c>
-      <c r="D337">
-        <v>6.37</v>
-      </c>
-      <c r="F337">
-        <v>6.37</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>snowboarding</t>
         </is>
@@ -6825,19 +5719,13 @@
           <t>dichter</t>
         </is>
       </c>
-      <c r="B338">
-        <v>68.97</v>
-      </c>
       <c r="C338">
         <v>6.37</v>
       </c>
       <c r="D338">
-        <v>4.1</v>
-      </c>
-      <c r="F338">
-        <v>6.37</v>
-      </c>
-      <c r="H338" t="inlineStr">
+        <v>68.97</v>
+      </c>
+      <c r="G338" t="inlineStr">
         <is>
           <t>poet</t>
         </is>
@@ -6852,10 +5740,7 @@
       <c r="C339">
         <v>6.37</v>
       </c>
-      <c r="F339">
-        <v>6.37</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>blade</t>
         </is>
@@ -6870,10 +5755,7 @@
       <c r="C340">
         <v>6.37</v>
       </c>
-      <c r="F340">
-        <v>6.37</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>scoundrel</t>
         </is>
@@ -6888,10 +5770,7 @@
       <c r="C341">
         <v>6.37</v>
       </c>
-      <c r="F341">
-        <v>6.37</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>wealth</t>
         </is>
@@ -6903,13 +5782,10 @@
           <t>sternfrucht</t>
         </is>
       </c>
-      <c r="D342">
+      <c r="C342">
         <v>6.38</v>
       </c>
-      <c r="F342">
-        <v>6.38</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>starfruit</t>
         </is>
@@ -6924,10 +5800,7 @@
       <c r="C343">
         <v>6.38</v>
       </c>
-      <c r="F343">
-        <v>6.38</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>beast</t>
         </is>
@@ -6942,10 +5815,7 @@
       <c r="C344">
         <v>6.38</v>
       </c>
-      <c r="F344">
-        <v>6.38</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
